--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H2">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I2">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J2">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N2">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O2">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P2">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q2">
-        <v>1663.729866822812</v>
+        <v>1986.208859162909</v>
       </c>
       <c r="R2">
-        <v>1663.729866822812</v>
+        <v>17875.87973246619</v>
       </c>
       <c r="S2">
-        <v>0.04786197620372946</v>
+        <v>0.05178838383034823</v>
       </c>
       <c r="T2">
-        <v>0.04786197620372946</v>
+        <v>0.0549813555739053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H3">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I3">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J3">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N3">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P3">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q3">
-        <v>6.59478265273421</v>
+        <v>9.026821063831999</v>
       </c>
       <c r="R3">
-        <v>6.59478265273421</v>
+        <v>81.241389574488</v>
       </c>
       <c r="S3">
-        <v>0.0001897178963293495</v>
+        <v>0.0002353652144209174</v>
       </c>
       <c r="T3">
-        <v>0.0001897178963293495</v>
+        <v>0.0002498764701018072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H4">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I4">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J4">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N4">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O4">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P4">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q4">
-        <v>376.3508360667203</v>
+        <v>431.278460968784</v>
       </c>
       <c r="R4">
-        <v>376.3508360667203</v>
+        <v>3881.506148719056</v>
       </c>
       <c r="S4">
-        <v>0.01082681456844787</v>
+        <v>0.01124514895368378</v>
       </c>
       <c r="T4">
-        <v>0.01082681456844787</v>
+        <v>0.01193845969647166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H5">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I5">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J5">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N5">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O5">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P5">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q5">
-        <v>364.8379059233037</v>
+        <v>415.9818490500053</v>
       </c>
       <c r="R5">
-        <v>364.8379059233037</v>
+        <v>3743.836641450048</v>
       </c>
       <c r="S5">
-        <v>0.01049561200993896</v>
+        <v>0.01084630529446888</v>
       </c>
       <c r="T5">
-        <v>0.01049561200993896</v>
+        <v>0.0115150256476794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H6">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I6">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J6">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N6">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O6">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P6">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q6">
-        <v>75.6338968426722</v>
+        <v>85.38386348263199</v>
       </c>
       <c r="R6">
-        <v>75.6338968426722</v>
+        <v>512.3031808957919</v>
       </c>
       <c r="S6">
-        <v>0.002175826642934719</v>
+        <v>0.00222629774031932</v>
       </c>
       <c r="T6">
-        <v>0.002175826642934719</v>
+        <v>0.001575705574887994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H7">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J7">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N7">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O7">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P7">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q7">
-        <v>7255.642526792046</v>
+        <v>8313.12987003693</v>
       </c>
       <c r="R7">
-        <v>7255.642526792046</v>
+        <v>74818.16883033236</v>
       </c>
       <c r="S7">
-        <v>0.2087294319138846</v>
+        <v>0.2167564395631838</v>
       </c>
       <c r="T7">
-        <v>0.2087294319138846</v>
+        <v>0.2301203859845762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H8">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J8">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N8">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P8">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q8">
-        <v>28.76030924509741</v>
+        <v>37.78109007571667</v>
       </c>
       <c r="R8">
-        <v>28.76030924509741</v>
+        <v>340.02981068145</v>
       </c>
       <c r="S8">
-        <v>0.0008273730394282529</v>
+        <v>0.0009851036487647106</v>
       </c>
       <c r="T8">
-        <v>0.0008273730394282529</v>
+        <v>0.001045839433169272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H9">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J9">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N9">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O9">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P9">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q9">
-        <v>1641.292366995931</v>
+        <v>1805.084012007767</v>
       </c>
       <c r="R9">
-        <v>1641.292366995931</v>
+        <v>16245.7561080699</v>
       </c>
       <c r="S9">
-        <v>0.04721649696806714</v>
+        <v>0.04706573693326563</v>
       </c>
       <c r="T9">
-        <v>0.04721649696806714</v>
+        <v>0.04996753762683243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H10">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J10">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N10">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O10">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P10">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q10">
-        <v>1591.083671929296</v>
+        <v>1741.061177316578</v>
       </c>
       <c r="R10">
-        <v>1591.083671929296</v>
+        <v>15669.5505958492</v>
       </c>
       <c r="S10">
-        <v>0.04577209940304131</v>
+        <v>0.04539640637842578</v>
       </c>
       <c r="T10">
-        <v>0.04577209940304131</v>
+        <v>0.04819528582019757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H11">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J11">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N11">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O11">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P11">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q11">
-        <v>329.844723799227</v>
+        <v>357.36782799155</v>
       </c>
       <c r="R11">
-        <v>329.844723799227</v>
+        <v>2144.2069679493</v>
       </c>
       <c r="S11">
-        <v>0.009488932450045175</v>
+        <v>0.009318004075585619</v>
       </c>
       <c r="T11">
-        <v>0.009488932450045175</v>
+        <v>0.006594998819260984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H12">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I12">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J12">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N12">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O12">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P12">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q12">
-        <v>4802.080278655232</v>
+        <v>5313.515460929812</v>
       </c>
       <c r="R12">
-        <v>4802.080278655232</v>
+        <v>47821.63914836831</v>
       </c>
       <c r="S12">
-        <v>0.1381456548978771</v>
+        <v>0.1385445326706966</v>
       </c>
       <c r="T12">
-        <v>0.1381456548978771</v>
+        <v>0.1470863859845787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H13">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I13">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J13">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N13">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P13">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q13">
-        <v>19.03474617498426</v>
+        <v>24.148594980053</v>
       </c>
       <c r="R13">
-        <v>19.03474617498426</v>
+        <v>217.337354820477</v>
       </c>
       <c r="S13">
-        <v>0.000547589237074238</v>
+        <v>0.0006296501498425898</v>
       </c>
       <c r="T13">
-        <v>0.000547589237074238</v>
+        <v>0.000668470730599847</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H14">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I14">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J14">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N14">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O14">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P14">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q14">
-        <v>1086.274258682814</v>
+        <v>1153.758206118086</v>
       </c>
       <c r="R14">
-        <v>1086.274258682814</v>
+        <v>10383.82385506277</v>
       </c>
       <c r="S14">
-        <v>0.03124980428408561</v>
+        <v>0.03008307638454484</v>
       </c>
       <c r="T14">
-        <v>0.03124980428408561</v>
+        <v>0.03193782460703778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H15">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I15">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J15">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N15">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O15">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P15">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q15">
-        <v>1053.044095605429</v>
+        <v>1112.836636588621</v>
       </c>
       <c r="R15">
-        <v>1053.044095605429</v>
+        <v>10015.52972929759</v>
       </c>
       <c r="S15">
-        <v>0.03029384303931149</v>
+        <v>0.02901608791555504</v>
       </c>
       <c r="T15">
-        <v>0.03029384303931149</v>
+        <v>0.03080505180997654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H16">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I16">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J16">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N16">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O16">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P16">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q16">
-        <v>218.3046969756187</v>
+        <v>228.419320876503</v>
       </c>
       <c r="R16">
-        <v>218.3046969756187</v>
+        <v>1370.515925259018</v>
       </c>
       <c r="S16">
-        <v>0.006280162675544615</v>
+        <v>0.005955802386666101</v>
       </c>
       <c r="T16">
-        <v>0.006280162675544615</v>
+        <v>0.004215335107089026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H17">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I17">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J17">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N17">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O17">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P17">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q17">
-        <v>6181.99657183534</v>
+        <v>6593.462715979157</v>
       </c>
       <c r="R17">
-        <v>6181.99657183534</v>
+        <v>59341.16444381241</v>
       </c>
       <c r="S17">
-        <v>0.1778429171183664</v>
+        <v>0.1719178606675482</v>
       </c>
       <c r="T17">
-        <v>0.1778429171183664</v>
+        <v>0.1825173200583351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H18">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I18">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J18">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N18">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P18">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q18">
-        <v>24.50453319627998</v>
+        <v>29.965634204892</v>
       </c>
       <c r="R18">
-        <v>24.50453319627998</v>
+        <v>269.690707844028</v>
       </c>
       <c r="S18">
-        <v>0.0007049433974300098</v>
+        <v>0.0007813235545514569</v>
       </c>
       <c r="T18">
-        <v>0.0007049433974300098</v>
+        <v>0.0008294954388186089</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H19">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I19">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J19">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N19">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O19">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P19">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q19">
-        <v>1398.423881645453</v>
+        <v>1431.681486810504</v>
       </c>
       <c r="R19">
-        <v>1398.423881645453</v>
+        <v>12885.13338129454</v>
       </c>
       <c r="S19">
-        <v>0.04022968624940233</v>
+        <v>0.03732964437234174</v>
       </c>
       <c r="T19">
-        <v>0.04022968624940233</v>
+        <v>0.03963117399852936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H20">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I20">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J20">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N20">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O20">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P20">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q20">
-        <v>1355.644764615896</v>
+        <v>1380.902516662432</v>
       </c>
       <c r="R20">
-        <v>1355.644764615896</v>
+        <v>12428.12264996189</v>
       </c>
       <c r="S20">
-        <v>0.03899902187165977</v>
+        <v>0.03600563416847704</v>
       </c>
       <c r="T20">
-        <v>0.03899902187165977</v>
+        <v>0.03822553299531455</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H21">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I21">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J21">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N21">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O21">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P21">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q21">
-        <v>281.0363030200645</v>
+        <v>283.442155552692</v>
       </c>
       <c r="R21">
-        <v>281.0363030200645</v>
+        <v>1700.652933316152</v>
       </c>
       <c r="S21">
-        <v>0.008084817803516033</v>
+        <v>0.00739046705876167</v>
       </c>
       <c r="T21">
-        <v>0.008084817803516033</v>
+        <v>0.005230746963722184</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H22">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I22">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J22">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N22">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O22">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P22">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q22">
-        <v>3349.256440636016</v>
+        <v>3811.102613819957</v>
       </c>
       <c r="R22">
-        <v>3349.256440636016</v>
+        <v>22866.61568291974</v>
       </c>
       <c r="S22">
-        <v>0.09635099739360566</v>
+        <v>0.0993706397345008</v>
       </c>
       <c r="T22">
-        <v>0.09635099739360566</v>
+        <v>0.07033150515949456</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H23">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I23">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J23">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N23">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P23">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q23">
-        <v>13.27596427444376</v>
+        <v>17.3205054403765</v>
       </c>
       <c r="R23">
-        <v>13.27596427444376</v>
+        <v>103.923032642259</v>
       </c>
       <c r="S23">
-        <v>0.0003819213075728607</v>
+        <v>0.0004516146324409686</v>
       </c>
       <c r="T23">
-        <v>0.0003819213075728607</v>
+        <v>0.0003196390496880078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H24">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I24">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J24">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N24">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O24">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P24">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q24">
-        <v>757.6322856079713</v>
+        <v>827.5295230407431</v>
       </c>
       <c r="R24">
-        <v>757.6322856079713</v>
+        <v>4965.177138244459</v>
       </c>
       <c r="S24">
-        <v>0.02179547241896558</v>
+        <v>0.02157699396640538</v>
       </c>
       <c r="T24">
-        <v>0.02179547241896558</v>
+        <v>0.01527153761442216</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H25">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I25">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J25">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N25">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O25">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P25">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q25">
-        <v>734.4555931638622</v>
+        <v>798.1786532179108</v>
       </c>
       <c r="R25">
-        <v>734.4555931638622</v>
+        <v>4789.071919307464</v>
       </c>
       <c r="S25">
-        <v>0.02112872818099654</v>
+        <v>0.02081169977031562</v>
       </c>
       <c r="T25">
-        <v>0.02112872818099654</v>
+        <v>0.01472988574577539</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H26">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I26">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J26">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N26">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O26">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P26">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q26">
-        <v>152.2586816419149</v>
+        <v>163.8330550161015</v>
       </c>
       <c r="R26">
-        <v>152.2586816419149</v>
+        <v>655.332220064406</v>
       </c>
       <c r="S26">
-        <v>0.004380159028744936</v>
+        <v>0.004271780934885312</v>
       </c>
       <c r="T26">
-        <v>0.004380159028744936</v>
+        <v>0.002015624089535479</v>
       </c>
     </row>
   </sheetData>
